--- a/biology/Médecine/Ligament_collatéral_médial_de_l'articulation_talo-crurale/Ligament_collatéral_médial_de_l'articulation_talo-crurale.xlsx
+++ b/biology/Médecine/Ligament_collatéral_médial_de_l'articulation_talo-crurale/Ligament_collatéral_médial_de_l'articulation_talo-crurale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_collat%C3%A9ral_m%C3%A9dial_de_l%27articulation_talo-crurale</t>
+          <t>Ligament_collatéral_médial_de_l'articulation_talo-crurale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament collatéral médial de l'articulation talo-crurale (ou ligament latéral interne de l'articulation du cou-de-pied ou ligament deltoïde de l'articulation talo-crurale) est un ligament de l'articulation talo-crurale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_collat%C3%A9ral_m%C3%A9dial_de_l%27articulation_talo-crurale</t>
+          <t>Ligament_collatéral_médial_de_l'articulation_talo-crurale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament collatéral médial de l'articulation talo-crurale est une bande fibreuse en forme d'éventail reliant les bords antérieur et postérieur de la malléole médiale et la partie postérieure du tarse.
 Il présente une couche superficielle et une couche profonde.
-Couche superficielle
-La couche superficielle constituant le ligament deltoïde proprement dit est constitué de trois parties :
-la partie tibio-naviculaire qui se termine sur la face supérieure de l'os naviculaire,
-la partie tibio-calcanéenne qui se termine sur le sustentaculum tali du calcanéus et sur le ligament calcanéo-naviculaire plantaire,
-la partie tibio-talaire antérieure qui se termine sur la partie médiale du col du talus.
-Couche profonde
-La couche profonde forme la partie tibio-talaire postérieure qui se termine sur le tubercule latéral du processus postérieur du talus.
 </t>
         </is>
       </c>
@@ -532,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_collat%C3%A9ral_m%C3%A9dial_de_l%27articulation_talo-crurale</t>
+          <t>Ligament_collatéral_médial_de_l'articulation_talo-crurale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,13 +554,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fonction</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le ligament collatéral médial de l'articulation talo-crurale soutient l'articulation de la cheville et résiste à une éversion excessive du pied[1].
-</t>
+          <t>Couche superficielle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La couche superficielle constituant le ligament deltoïde proprement dit est constitué de trois parties :
+la partie tibio-naviculaire qui se termine sur la face supérieure de l'os naviculaire,
+la partie tibio-calcanéenne qui se termine sur le sustentaculum tali du calcanéus et sur le ligament calcanéo-naviculaire plantaire,
+la partie tibio-talaire antérieure qui se termine sur la partie médiale du col du talus.</t>
         </is>
       </c>
     </row>
@@ -563,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ligament_collat%C3%A9ral_m%C3%A9dial_de_l%27articulation_talo-crurale</t>
+          <t>Ligament_collatéral_médial_de_l'articulation_talo-crurale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +593,82 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Couche profonde</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La couche profonde forme la partie tibio-talaire postérieure qui se termine sur le tubercule latéral du processus postérieur du talus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ligament_collatéral_médial_de_l'articulation_talo-crurale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligament_collat%C3%A9ral_m%C3%A9dial_de_l%27articulation_talo-crurale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fonction</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament collatéral médial de l'articulation talo-crurale soutient l'articulation de la cheville et résiste à une éversion excessive du pied.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ligament_collatéral_médial_de_l'articulation_talo-crurale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligament_collat%C3%A9ral_m%C3%A9dial_de_l%27articulation_talo-crurale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Rapports</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament collatéral médial de l'articulation talo-crurale est recouvert par les tendons du muscle tibial postérieur et du muscle fléchisseur commun des orteils.
 </t>
